--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\git\Inventory\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFF6FED-832F-46EE-BF92-2AC75965200A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E83A3A-04D5-44F5-842F-D31C86521A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -136,13 +136,53 @@
   </si>
   <si>
     <t>Smadici Andrei</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>lipsa criteriului de stergere</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>ce se actualizeaza mai exact</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>ce se intampla mai exact la stergere</t>
+  </si>
+  <si>
+    <t>19.03.2020</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Am redenumit Part in AbstractPart pentru a reflecta faptul ca este o clasa abstracta</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>Unele Clase nu au descriere</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>removeProduct-&gt;deleteProduct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +256,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -320,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +398,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -392,7 +442,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +786,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,19 +806,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -782,7 +831,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -793,14 +842,14 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -811,10 +860,10 @@
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -826,15 +875,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -854,27 +907,39 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1025,7 +1090,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,19 +1109,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1069,7 +1134,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1080,14 +1145,14 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1098,10 +1163,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1113,15 +1178,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1137,31 +1206,43 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -1320,8 +1401,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,19 +1422,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1366,7 +1447,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1377,14 +1458,14 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1395,10 +1476,10 @@
       <c r="C5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1410,15 +1491,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1653,7 +1734,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1675,19 +1756,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="20" t="s">
         <v>31</v>
@@ -1700,7 +1781,7 @@
       <c r="H3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="18">
@@ -1711,12 +1792,12 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1727,8 +1808,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
       </c>
@@ -1740,8 +1821,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1973,11 +2054,11 @@
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="19"/>
     </row>
   </sheetData>

--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\git\Inventory\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E83A3A-04D5-44F5-842F-D31C86521A2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00903C5-5985-4F95-B8E6-90B722324C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -176,6 +176,34 @@
   </si>
   <si>
     <t>removeProduct-&gt;deleteProduct</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>controller/AddPartController:164</t>
+  </si>
+  <si>
+    <t>Folosirea unei sintaxe redundante in conditie</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>controller/AddPartController:109</t>
+  </si>
+  <si>
+    <t>Nu se verifica rezultatul</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Corpurile catch sunt identice si pot fi combinate</t>
+  </si>
+  <si>
+    <t>controller/AddPartController:173</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1430,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,14 +1519,18 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1519,27 +1551,45 @@
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">

--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VVSS\git\Inventory\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00903C5-5985-4F95-B8E6-90B722324C49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FF0067-55C8-4A69-A495-F820BE3FA6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -204,13 +204,70 @@
   </si>
   <si>
     <t>controller/AddPartController:173</t>
+  </si>
+  <si>
+    <t>Use errors logger instead of system out</t>
+  </si>
+  <si>
+    <t>System.out.println</t>
+  </si>
+  <si>
+    <t>log.error</t>
+  </si>
+  <si>
+    <t>controller/AddPartController:87</t>
+  </si>
+  <si>
+    <t>commented line</t>
+  </si>
+  <si>
+    <t>//scene = FXMLLoader.load(getClass().getResource(source));</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>controller/AddPartController:28</t>
+  </si>
+  <si>
+    <t>unused variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> private int partId;</t>
+  </si>
+  <si>
+    <t>controller/ModifyPartController</t>
+  </si>
+  <si>
+    <t>rename variable</t>
+  </si>
+  <si>
+    <t>String partId</t>
+  </si>
+  <si>
+    <t>String partIdbox</t>
+  </si>
+  <si>
+    <t>new Integer(p.getPartId()).toString()</t>
+  </si>
+  <si>
+    <t>Integer.toString(p.getPartId())</t>
+  </si>
+  <si>
+    <t>model/Product</t>
+  </si>
+  <si>
+    <t>depricated method</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +352,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -396,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,6 +543,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,7 +1509,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1784,8 +1864,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,7 +1922,9 @@
       <c r="C4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="E4" s="32"/>
       <c r="H4" s="18" t="s">
         <v>21</v>
@@ -1858,7 +1940,9 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="23"/>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -1871,7 +1955,9 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1891,54 +1977,94 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -2120,6 +2246,7 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
